--- a/Docs/PrubeasReto3.xlsx
+++ b/Docs/PrubeasReto3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\megarex mastercraft\Desktop\SamuelJosueFreireTarazona\Segundo Semestre\EDA\Retos\Prueba Reto 3\PruebaReto3\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\megarex mastercraft\Desktop\SamuelJosueFreireTarazona\Segundo Semestre\EDA\Retos\Reto3\Reto3--G07\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Pruebas de tiempo</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>Promedio</t>
+  </si>
+  <si>
+    <t>Req 3</t>
+  </si>
+  <si>
+    <t>20:00-22:00</t>
+  </si>
+  <si>
+    <t>22:00-23:59</t>
+  </si>
+  <si>
+    <t>14:00--19:00</t>
   </si>
 </sst>
 </file>
@@ -412,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,16 +503,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -508,31 +520,31 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>93.75</v>
+        <v>2843.75</v>
       </c>
       <c r="C10">
-        <v>46.88</v>
+        <v>1593.75</v>
       </c>
       <c r="D10">
-        <v>31.25</v>
+        <v>921.87</v>
       </c>
       <c r="E10">
         <f>(B10+C10+D10)/3</f>
-        <v>57.293333333333329</v>
+        <v>1786.4566666666667</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -540,16 +552,48 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>234.38</v>
+        <v>93.75</v>
       </c>
       <c r="C13">
-        <v>1062.5</v>
+        <v>46.88</v>
       </c>
       <c r="D13">
-        <v>62.5</v>
+        <v>31.25</v>
       </c>
       <c r="E13">
         <f>(B13+C13+D13)/3</f>
+        <v>57.293333333333329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>234.38</v>
+      </c>
+      <c r="C16">
+        <v>1062.5</v>
+      </c>
+      <c r="D16">
+        <v>62.5</v>
+      </c>
+      <c r="E16">
+        <f>(B16+C16+D16)/3</f>
         <v>453.12666666666672</v>
       </c>
     </row>
